--- a/SGP_QA_GAME_2/HomelessTitans_Testing_for_TwoGuysAndAGirl_BugTracker_Ver2.xlsx
+++ b/SGP_QA_GAME_2/HomelessTitans_Testing_for_TwoGuysAndAGirl_BugTracker_Ver2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="150">
   <si>
     <t>Category</t>
   </si>
@@ -447,6 +447,36 @@
   </si>
   <si>
     <t>12|14</t>
+  </si>
+  <si>
+    <t>13|14</t>
+  </si>
+  <si>
+    <t>Error messagebox when loading levels 3 - 10</t>
+  </si>
+  <si>
+    <t>Go to main menu &gt;&gt; play &gt;&gt; load level 3 - 10</t>
+  </si>
+  <si>
+    <t>Messagebox saying "Failed to create texture"</t>
+  </si>
+  <si>
+    <t>No error message</t>
+  </si>
+  <si>
+    <t>14|14</t>
+  </si>
+  <si>
+    <t>Editing a game profile doesn't work</t>
+  </si>
+  <si>
+    <t>Select Edit &gt;&gt; select "yes" to "are you sure?"</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>A message or result</t>
   </si>
 </sst>
 </file>
@@ -767,7 +797,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -839,7 +869,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1576,25 +1612,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16" width="20.7109375" customWidth="1"/>
+    <col min="18" max="25" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-    </row>
-    <row r="2" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+    </row>
+    <row r="2" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>58</v>
       </c>
@@ -1608,7 +1645,7 @@
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>32</v>
       </c>
@@ -1657,8 +1694,32 @@
       <c r="P3" s="31" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R3" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>80</v>
       </c>
@@ -1707,8 +1768,32 @@
       <c r="P4" s="30" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R4" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="S4" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="W4" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="X4" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
@@ -1749,8 +1834,28 @@
         <v>34</v>
       </c>
       <c r="P5" s="31"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R5" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="X5" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y5" s="37"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
@@ -1791,217 +1896,333 @@
         <v>50</v>
       </c>
       <c r="P6" s="30"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="R6" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="34">
+        <v>40381</v>
+      </c>
+      <c r="T6" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="34">
+        <v>40381</v>
+      </c>
+      <c r="X6" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y6" s="38"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37" t="s">
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37" t="s">
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="R7" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39" t="s">
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39" t="s">
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-    </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="R8" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+    </row>
+    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40" t="s">
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40" t="s">
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40" t="s">
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-    </row>
-    <row r="10" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="R9" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+    </row>
+    <row r="10" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="38" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38" t="s">
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38" t="s">
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="R10" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37" t="s">
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37" t="s">
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-    </row>
-    <row r="12" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="R11" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+    </row>
+    <row r="12" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38" t="s">
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38" t="s">
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="R12" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37" t="s">
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37" t="s">
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-    </row>
-    <row r="14" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="R13" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+    </row>
+    <row r="14" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38" t="s">
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38" t="s">
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="R14" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>60</v>
       </c>
@@ -2200,212 +2421,212 @@
       <c r="P20" s="35"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37" t="s">
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37" t="s">
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37" t="s">
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39" t="s">
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39" t="s">
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39" t="s">
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40" t="s">
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40" t="s">
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
     </row>
     <row r="24" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38" t="s">
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38" t="s">
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38" t="s">
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37" t="s">
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37" t="s">
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37" t="s">
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
     </row>
     <row r="26" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38" t="s">
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38" t="s">
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38" t="s">
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37" t="s">
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37" t="s">
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37" t="s">
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
     </row>
     <row r="28" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38" t="s">
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38" t="s">
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38" t="s">
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2607,269 +2828,258 @@
       <c r="P34" s="32"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37" t="s">
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37" t="s">
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37" t="s">
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39" t="s">
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39" t="s">
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39" t="s">
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="39"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40" t="s">
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40" t="s">
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40" t="s">
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
     </row>
     <row r="38" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38" t="s">
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38" t="s">
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38" t="s">
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37" t="s">
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37" t="s">
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37" t="s">
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
     </row>
     <row r="40" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38" t="s">
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38" t="s">
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38" t="s">
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="39"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37" t="s">
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37" t="s">
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37" t="s">
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
     </row>
     <row r="42" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38" t="s">
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38" t="s">
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38" t="s">
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
+  <mergeCells count="113">
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="V14:Y14"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
     <mergeCell ref="M7:P7"/>
     <mergeCell ref="M8:P8"/>
     <mergeCell ref="M9:P9"/>
@@ -2886,48 +3096,75 @@
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="I13:L13"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M39:P39"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 N32 J32 F32 B32 N18 J18 F18 B18 N4 J4 F4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 N32 J32 F32 B32 N18 J18 F18 B18 N4 J4 F4 S4 W4">
       <formula1>severity</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 O32 K32 G32 C32 O18 K18 G18 C18 O4 K4 G4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 O32 K32 G32 C32 O18 K18 G18 C18 O4 K4 G4 T4 X4">
       <formula1>category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 P32 L32 H32 D32 P18 L18 H18 D18 P4 L4 H4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 P32 L32 H32 D32 P18 L18 H18 D18 P4 L4 H4 U4 Y4">
       <formula1>component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 M34 I34 E34 A34 M20 I20 E20 A20 M6 I6 E6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 M34 I34 E34 A34 M20 I20 E20 A20 M6 I6 E6 R6 V6">
       <formula1>status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 O34 K34 G34 C34 O20 K20 G20 C20 O6 K6 G6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 O34 K34 G34 C34 O20 K20 G20 C20 O6 K6 G6 T6 X6">
       <formula1>build_found</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B30 B16">

--- a/SGP_QA_GAME_2/HomelessTitans_Testing_for_TwoGuysAndAGirl_BugTracker_Ver2.xlsx
+++ b/SGP_QA_GAME_2/HomelessTitans_Testing_for_TwoGuysAndAGirl_BugTracker_Ver2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9114"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="-480" windowWidth="29040" windowHeight="14415" activeTab="1"/>
+    <workbookView xWindow="-150" yWindow="-480" windowWidth="25440" windowHeight="14415" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info and definitions" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="160">
   <si>
     <t>Category</t>
   </si>
@@ -477,13 +477,43 @@
   </si>
   <si>
     <t>A message or result</t>
+  </si>
+  <si>
+    <t>15|14</t>
+  </si>
+  <si>
+    <t>Saving game has no effect</t>
+  </si>
+  <si>
+    <t>Enter a level &gt;&gt; Pause the game &gt;&gt; select save game &gt;&gt; hit enter to select Yes</t>
+  </si>
+  <si>
+    <t>Returned to the main menu, nothing was changed on the profile, and there was no confirmation</t>
+  </si>
+  <si>
+    <t>Conformation message, returning to the pause menu, some sort of change to the profile to reflect that I saved</t>
+  </si>
+  <si>
+    <t>16|14</t>
+  </si>
+  <si>
+    <t>Selecting no on save game screen gets you stuck on the profile screen</t>
+  </si>
+  <si>
+    <t>Enter a level &gt;&gt; Pause the game &gt;&gt; select save game &gt;&gt; select no and press enter</t>
+  </si>
+  <si>
+    <t>I remained on the profile screen, and none of my input seemed to do anything</t>
+  </si>
+  <si>
+    <t>I would exit the save game screen and return to the pause screen.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,7 +827,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -871,6 +901,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -927,34 +963,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1F497D" mc:Ignorable=""/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="EEECE1" mc:Ignorable=""/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4F81BD" mc:Ignorable=""/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="C0504D" mc:Ignorable=""/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="9BBB59" mc:Ignorable=""/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="8064A2" mc:Ignorable=""/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4BACC6" mc:Ignorable=""/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="F79646" mc:Ignorable=""/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable=""/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="800080" mc:Ignorable=""/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -991,7 +1027,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1026,7 +1061,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1108,7 +1142,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
+              <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -1117,7 +1151,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
+              <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -1126,7 +1160,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
+              <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -1202,7 +1236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F40"/>
   <sheetViews>
@@ -1210,7 +1244,7 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
@@ -1225,7 +1259,7 @@
     <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="16" t="s">
         <v>61</v>
       </c>
@@ -1239,7 +1273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="29" t="s">
         <v>63</v>
       </c>
@@ -1253,7 +1287,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -1265,7 +1299,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="16" t="s">
         <v>53</v>
       </c>
@@ -1282,7 +1316,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" thickTop="1">
       <c r="A5" s="27" t="s">
         <v>64</v>
       </c>
@@ -1298,7 +1332,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="27" t="s">
         <v>65</v>
       </c>
@@ -1314,7 +1348,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
       <c r="A7" s="27" t="s">
         <v>66</v>
       </c>
@@ -1330,7 +1364,7 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="D8" s="25"/>
       <c r="E8" s="16" t="s">
         <v>0</v>
@@ -1339,7 +1373,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="16" t="s">
         <v>56</v>
       </c>
@@ -1351,7 +1385,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="28" t="s">
         <v>67</v>
       </c>
@@ -1362,7 +1396,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -1371,7 +1405,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="16" t="s">
         <v>53</v>
       </c>
@@ -1388,7 +1422,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" thickTop="1">
       <c r="A13" s="27" t="s">
         <v>68</v>
       </c>
@@ -1403,7 +1437,7 @@
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="27" t="s">
         <v>71</v>
       </c>
@@ -1418,13 +1452,13 @@
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
       <c r="E15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="16" t="s">
         <v>57</v>
       </c>
@@ -1433,7 +1467,7 @@
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="29">
         <v>14</v>
       </c>
@@ -1442,61 +1476,61 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.75" thickTop="1">
       <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="E19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="E20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="E21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="E22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="E23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="E24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="E25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15.75" thickBot="1">
       <c r="E26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="46.5" thickTop="1" thickBot="1">
       <c r="E27" s="16" t="s">
         <v>2</v>
       </c>
@@ -1504,25 +1538,25 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75" thickTop="1">
       <c r="E28" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="E29" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" thickBot="1">
       <c r="E30" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="E31" s="16" t="s">
         <v>5</v>
       </c>
@@ -1530,7 +1564,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="31.5" thickTop="1" thickBot="1">
       <c r="E32" s="16" t="s">
         <v>33</v>
       </c>
@@ -1538,7 +1572,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="C33" s="20"/>
       <c r="E33" s="16" t="s">
         <v>36</v>
@@ -1547,7 +1581,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="E34" s="16" t="s">
         <v>3</v>
       </c>
@@ -1555,7 +1589,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="E35" s="16" t="s">
         <v>43</v>
       </c>
@@ -1563,7 +1597,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="3:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:6" ht="31.5" thickTop="1" thickBot="1">
       <c r="E36" s="16" t="s">
         <v>4</v>
       </c>
@@ -1571,26 +1605,26 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:6" ht="15.75" thickTop="1">
       <c r="E37" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:6">
       <c r="D38" s="10"/>
       <c r="E38" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:6">
       <c r="E39" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:6" ht="15.75" thickBot="1">
       <c r="E40" s="9" t="s">
         <v>41</v>
       </c>
@@ -1610,28 +1644,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView tabSelected="1" topLeftCell="O18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V42" sqref="V42:Y42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16" width="20.7109375" customWidth="1"/>
     <col min="18" max="25" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A1" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-    </row>
-    <row r="2" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+    </row>
+    <row r="2" spans="1:25" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="16" t="s">
         <v>58</v>
       </c>
@@ -1645,7 +1679,7 @@
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" thickTop="1">
       <c r="A3" s="11" t="s">
         <v>32</v>
       </c>
@@ -1719,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4" s="18" t="s">
         <v>80</v>
       </c>
@@ -1793,7 +1827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
@@ -1855,7 +1889,7 @@
       </c>
       <c r="Y5" s="37"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
@@ -1897,332 +1931,332 @@
       </c>
       <c r="P6" s="30"/>
       <c r="R6" s="38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="S6" s="34">
-        <v>40381</v>
+        <v>40386</v>
       </c>
       <c r="T6" s="38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U6" s="38"/>
       <c r="V6" s="38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="W6" s="34">
-        <v>40381</v>
+        <v>40386</v>
       </c>
       <c r="X6" s="38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y6" s="38"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+    <row r="7" spans="1:25">
+      <c r="A7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40" t="s">
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40" t="s">
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="R7" s="40" t="s">
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="R7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40" t="s">
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41" t="s">
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41" t="s">
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="R8" s="41" t="s">
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="R8" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41" t="s">
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-    </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+    </row>
+    <row r="9" spans="1:25" ht="15" customHeight="1">
+      <c r="A9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42" t="s">
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42" t="s">
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="R9" s="42" t="s">
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="R9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42" t="s">
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-    </row>
-    <row r="10" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+    </row>
+    <row r="10" spans="1:25" ht="50.1" customHeight="1">
+      <c r="A10" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="39" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39" t="s">
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39" t="s">
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="R10" s="39" t="s">
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="R10" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39" t="s">
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40" t="s">
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40" t="s">
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="R11" s="40" t="s">
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="R11" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40" t="s">
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-    </row>
-    <row r="12" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+    </row>
+    <row r="12" spans="1:25" ht="50.1" customHeight="1">
+      <c r="A12" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39" t="s">
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39" t="s">
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="R12" s="39" t="s">
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="R12" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39" t="s">
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40" t="s">
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40" t="s">
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="R13" s="40" t="s">
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="R13" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40" t="s">
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-    </row>
-    <row r="14" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+    </row>
+    <row r="14" spans="1:25" ht="50.1" customHeight="1">
+      <c r="A14" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39" t="s">
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39" t="s">
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="R14" s="39" t="s">
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="R14" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39" t="s">
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-    </row>
-    <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" thickBot="1"/>
+    <row r="16" spans="1:25" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="16" t="s">
         <v>60</v>
       </c>
@@ -2236,7 +2270,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="15.75" thickTop="1">
       <c r="A17" s="13" t="s">
         <v>32</v>
       </c>
@@ -2286,7 +2320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="A18" s="18" t="s">
         <v>120</v>
       </c>
@@ -2336,7 +2370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="A19" s="13" t="s">
         <v>4</v>
       </c>
@@ -2378,7 +2412,7 @@
       </c>
       <c r="P19" s="36"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="A20" s="14" t="s">
         <v>40</v>
       </c>
@@ -2420,216 +2454,216 @@
       </c>
       <c r="P20" s="35"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+    <row r="21" spans="1:25">
+      <c r="A21" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40" t="s">
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40" t="s">
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41" t="s">
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41" t="s">
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41" t="s">
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42" t="s">
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42" t="s">
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42" t="s">
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-    </row>
-    <row r="24" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+    </row>
+    <row r="24" spans="1:25" ht="49.5" customHeight="1">
+      <c r="A24" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39" t="s">
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39" t="s">
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40" t="s">
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40" t="s">
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40" t="s">
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-    </row>
-    <row r="26" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+    </row>
+    <row r="26" spans="1:25" ht="49.5" customHeight="1">
+      <c r="A26" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39" t="s">
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39" t="s">
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39" t="s">
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40" t="s">
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40" t="s">
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40" t="s">
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-    </row>
-    <row r="28" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+    </row>
+    <row r="28" spans="1:25" ht="49.5" customHeight="1">
+      <c r="A28" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39" t="s">
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39" t="s">
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39" t="s">
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+    </row>
+    <row r="29" spans="1:25" ht="15.75" thickBot="1"/>
+    <row r="30" spans="1:25" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="16" t="s">
         <v>59</v>
       </c>
@@ -2643,7 +2677,7 @@
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
     </row>
-    <row r="31" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="15.75" thickTop="1">
       <c r="A31" s="13" t="s">
         <v>32</v>
       </c>
@@ -2692,8 +2726,32 @@
       <c r="P31" s="33" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R31" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="S31" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="T31" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="U31" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="V31" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="W31" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="X31" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" s="18" t="s">
         <v>100</v>
       </c>
@@ -2742,8 +2800,32 @@
       <c r="P32" s="32" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R32" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="S32" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="T32" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="U32" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="V32" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="W32" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="X32" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y32" s="40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" s="13" t="s">
         <v>4</v>
       </c>
@@ -2784,8 +2866,28 @@
         <v>34</v>
       </c>
       <c r="P33" s="33"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R33" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="S33" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="T33" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="W33" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="X33" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y33" s="39"/>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" s="14" t="s">
         <v>40</v>
       </c>
@@ -2826,260 +2928,398 @@
         <v>50</v>
       </c>
       <c r="P34" s="32"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
+      <c r="R34" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="S34" s="34">
+        <v>40386</v>
+      </c>
+      <c r="T34" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="W34" s="34">
+        <v>40386</v>
+      </c>
+      <c r="X34" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y34" s="40"/>
+    </row>
+    <row r="35" spans="1:25">
+      <c r="A35" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40" t="s">
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40" t="s">
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40" t="s">
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="s">
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="R35" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="42"/>
+      <c r="T35" s="42"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="42"/>
+      <c r="X35" s="42"/>
+      <c r="Y35" s="42"/>
+    </row>
+    <row r="36" spans="1:25">
+      <c r="A36" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41" t="s">
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41" t="s">
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41" t="s">
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="42" t="s">
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="R36" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="W36" s="43"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="43"/>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="A37" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42" t="s">
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42" t="s">
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42" t="s">
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-    </row>
-    <row r="38" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="R37" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="S37" s="44"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="44"/>
+      <c r="V37" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="W37" s="44"/>
+      <c r="X37" s="44"/>
+      <c r="Y37" s="44"/>
+    </row>
+    <row r="38" spans="1:25" ht="49.5" customHeight="1">
+      <c r="A38" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39" t="s">
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39" t="s">
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39" t="s">
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="N38" s="39"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="39"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="40" t="s">
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="41"/>
+      <c r="R38" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="S38" s="41"/>
+      <c r="T38" s="41"/>
+      <c r="U38" s="41"/>
+      <c r="V38" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="W38" s="41"/>
+      <c r="X38" s="41"/>
+      <c r="Y38" s="41"/>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="A39" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40" t="s">
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40" t="s">
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40" t="s">
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-    </row>
-    <row r="40" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="R39" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="S39" s="42"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="42"/>
+      <c r="V39" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="W39" s="42"/>
+      <c r="X39" s="42"/>
+      <c r="Y39" s="42"/>
+    </row>
+    <row r="40" spans="1:25" ht="47.25" customHeight="1">
+      <c r="A40" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39" t="s">
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39" t="s">
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39" t="s">
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="39"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="40" t="s">
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
+      <c r="R40" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="S40" s="41"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="W40" s="41"/>
+      <c r="X40" s="41"/>
+      <c r="Y40" s="41"/>
+    </row>
+    <row r="41" spans="1:25">
+      <c r="A41" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40" t="s">
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40" t="s">
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40" t="s">
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-    </row>
-    <row r="42" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="R41" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="S41" s="42"/>
+      <c r="T41" s="42"/>
+      <c r="U41" s="42"/>
+      <c r="V41" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="W41" s="42"/>
+      <c r="X41" s="42"/>
+      <c r="Y41" s="42"/>
+    </row>
+    <row r="42" spans="1:25" ht="49.5" customHeight="1">
+      <c r="A42" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39" t="s">
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39" t="s">
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39" t="s">
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
+      <c r="R42" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="S42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="W42" s="41"/>
+      <c r="X42" s="41"/>
+      <c r="Y42" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="113">
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="V14:Y14"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
+  <mergeCells count="129">
+    <mergeCell ref="V35:Y35"/>
+    <mergeCell ref="V36:Y36"/>
+    <mergeCell ref="V37:Y37"/>
+    <mergeCell ref="V38:Y38"/>
+    <mergeCell ref="V39:Y39"/>
+    <mergeCell ref="V40:Y40"/>
+    <mergeCell ref="V41:Y41"/>
+    <mergeCell ref="V42:Y42"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="R35:U35"/>
+    <mergeCell ref="R36:U36"/>
+    <mergeCell ref="R37:U37"/>
+    <mergeCell ref="R38:U38"/>
+    <mergeCell ref="R39:U39"/>
+    <mergeCell ref="R40:U40"/>
+    <mergeCell ref="R41:U41"/>
+    <mergeCell ref="R42:U42"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
     <mergeCell ref="M7:P7"/>
     <mergeCell ref="M8:P8"/>
     <mergeCell ref="M9:P9"/>
@@ -3101,73 +3341,67 @@
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="V14:Y14"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="R14:U14"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 N32 J32 F32 B32 N18 J18 F18 B18 N4 J4 F4 S4 W4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 W4 S4 F4 J4 N4 B18 F18 J18 N18 B32 F32 J32 N32 S32 W32">
       <formula1>severity</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 O32 K32 G32 C32 O18 K18 G18 C18 O4 K4 G4 T4 X4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 X4 T4 G4 K4 O4 C18 G18 K18 O18 C32 G32 K32 O32 T32 X32">
       <formula1>category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 P32 L32 H32 D32 P18 L18 H18 D18 P4 L4 H4 U4 Y4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 Y4 U4 H4 L4 P4 D18 H18 L18 P18 D32 H32 L32 P32 U32 Y32">
       <formula1>component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 M34 I34 E34 A34 M20 I20 E20 A20 M6 I6 E6 R6 V6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 V6 R6 E6 I6 M6 A20 E20 I20 M20 A34 E34 I34 M34 R34 V34">
       <formula1>status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 O34 K34 G34 C34 O20 K20 G20 C20 O6 K6 G6 T6 X6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 X6 T6 G6 K6 O6 C20 G20 K20 O20 C34 G34 K34 O34 T34 X34">
       <formula1>build_found</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B30 B16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B16 B30">
       <formula1>tester_team</formula1>
     </dataValidation>
   </dataValidations>

--- a/SGP_QA_GAME_2/HomelessTitans_Testing_for_TwoGuysAndAGirl_BugTracker_Ver2.xlsx
+++ b/SGP_QA_GAME_2/HomelessTitans_Testing_for_TwoGuysAndAGirl_BugTracker_Ver2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="170">
   <si>
     <t>Category</t>
   </si>
@@ -507,6 +507,36 @@
   </si>
   <si>
     <t>I would exit the save game screen and return to the pause screen.</t>
+  </si>
+  <si>
+    <t>17|14</t>
+  </si>
+  <si>
+    <t>18|14</t>
+  </si>
+  <si>
+    <t>SFX volume does not affect sound effects</t>
+  </si>
+  <si>
+    <t>Go to main menu &gt;&gt; play &gt;&gt; load level 1 &gt;&gt; Options &gt;&gt; change the sfx volume</t>
+  </si>
+  <si>
+    <t>No change is reflected in the sound of the star shot</t>
+  </si>
+  <si>
+    <t>the sound should scale with the volume</t>
+  </si>
+  <si>
+    <t>The ability activates on resume from pause</t>
+  </si>
+  <si>
+    <t>Go to main menu &gt;&gt; play &gt;&gt; load level 1 &gt;&gt; bring up pause menu &gt;&gt; hit enter on resume</t>
+  </si>
+  <si>
+    <t>The star effect is activated</t>
+  </si>
+  <si>
+    <t>nothing</t>
   </si>
 </sst>
 </file>
@@ -827,7 +857,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -907,8 +937,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -917,6 +950,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1648,8 +1684,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V42" sqref="V42:Y42"/>
+    <sheetView tabSelected="1" topLeftCell="P7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V28" sqref="V28:Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1659,11 +1695,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="16" t="s">
@@ -1952,308 +1988,308 @@
       <c r="Y6" s="38"/>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42" t="s">
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42" t="s">
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="R7" s="42" t="s">
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="R7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42" t="s">
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43" t="s">
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43" t="s">
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="R8" s="43" t="s">
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="R8" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43" t="s">
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
     </row>
     <row r="9" spans="1:25" ht="15" customHeight="1">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44" t="s">
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44" t="s">
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44" t="s">
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="R9" s="44" t="s">
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="R9" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44" t="s">
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="44"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
     </row>
     <row r="10" spans="1:25" ht="50.1" customHeight="1">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="41" t="s">
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41" t="s">
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41" t="s">
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="R10" s="41" t="s">
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="R10" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41" t="s">
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42" t="s">
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42" t="s">
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="R11" s="42" t="s">
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="R11" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42" t="s">
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
     </row>
     <row r="12" spans="1:25" ht="50.1" customHeight="1">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41" t="s">
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41" t="s">
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="R12" s="41" t="s">
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="R12" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41" t="s">
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42" t="s">
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42" t="s">
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="R13" s="42" t="s">
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="R13" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42" t="s">
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
     </row>
     <row r="14" spans="1:25" ht="50.1" customHeight="1">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41" t="s">
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41" t="s">
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41" t="s">
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="R14" s="41" t="s">
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="R14" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41" t="s">
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:25" ht="16.5" thickTop="1" thickBot="1">
@@ -2319,6 +2355,30 @@
       <c r="P17" s="36" t="s">
         <v>1</v>
       </c>
+      <c r="R17" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="S17" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="T17" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="U17" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="V17" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="W17" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="X17" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="41" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="18" t="s">
@@ -2369,6 +2429,30 @@
       <c r="P18" s="35" t="s">
         <v>27</v>
       </c>
+      <c r="R18" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="S18" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="T18" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="U18" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="V18" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="W18" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="X18" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y18" s="42" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="13" t="s">
@@ -2411,6 +2495,26 @@
         <v>34</v>
       </c>
       <c r="P19" s="36"/>
+      <c r="R19" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="S19" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="T19" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="W19" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="X19" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y19" s="41"/>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="14" t="s">
@@ -2453,214 +2557,330 @@
         <v>50</v>
       </c>
       <c r="P20" s="35"/>
+      <c r="R20" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="S20" s="34">
+        <v>40386</v>
+      </c>
+      <c r="T20" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="W20" s="34">
+        <v>40386</v>
+      </c>
+      <c r="X20" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y20" s="42"/>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42" t="s">
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42" t="s">
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42" t="s">
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="R21" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43" t="s">
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43" t="s">
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43" t="s">
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="R22" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44" t="s">
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44" t="s">
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44" t="s">
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="R23" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
     </row>
     <row r="24" spans="1:25" ht="49.5" customHeight="1">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41" t="s">
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41" t="s">
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41" t="s">
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="R24" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="W24" s="46"/>
+      <c r="X24" s="46"/>
+      <c r="Y24" s="46"/>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42" t="s">
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42" t="s">
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42" t="s">
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="R25" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43"/>
     </row>
     <row r="26" spans="1:25" ht="49.5" customHeight="1">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41" t="s">
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41" t="s">
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41" t="s">
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
+      <c r="R26" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="W26" s="46"/>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="46"/>
     </row>
     <row r="27" spans="1:25">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42" t="s">
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42" t="s">
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42" t="s">
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="R27" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
     </row>
     <row r="28" spans="1:25" ht="49.5" customHeight="1">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41" t="s">
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41" t="s">
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41" t="s">
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="R28" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="W28" s="46"/>
+      <c r="X28" s="46"/>
+      <c r="Y28" s="46"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:25" ht="16.5" thickTop="1" thickBot="1">
@@ -2950,311 +3170,432 @@
       <c r="Y34" s="40"/>
     </row>
     <row r="35" spans="1:25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42" t="s">
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42" t="s">
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42" t="s">
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="R35" s="42" t="s">
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="R35" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="S35" s="42"/>
-      <c r="T35" s="42"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="42" t="s">
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="W35" s="42"/>
-      <c r="X35" s="42"/>
-      <c r="Y35" s="42"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="43"/>
+      <c r="Y35" s="43"/>
     </row>
     <row r="36" spans="1:25">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43" t="s">
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43" t="s">
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43" t="s">
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="R36" s="43" t="s">
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="R36" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="S36" s="43"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="43" t="s">
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="W36" s="43"/>
-      <c r="X36" s="43"/>
-      <c r="Y36" s="43"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="44"/>
     </row>
     <row r="37" spans="1:25">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44" t="s">
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44" t="s">
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44" t="s">
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="N37" s="44"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44"/>
-      <c r="R37" s="44" t="s">
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="R37" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="S37" s="44"/>
-      <c r="T37" s="44"/>
-      <c r="U37" s="44"/>
-      <c r="V37" s="44" t="s">
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="W37" s="44"/>
-      <c r="X37" s="44"/>
-      <c r="Y37" s="44"/>
+      <c r="W37" s="45"/>
+      <c r="X37" s="45"/>
+      <c r="Y37" s="45"/>
     </row>
     <row r="38" spans="1:25" ht="49.5" customHeight="1">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41" t="s">
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41" t="s">
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41" t="s">
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
-      <c r="R38" s="41" t="s">
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+      <c r="R38" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="S38" s="41"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="41"/>
-      <c r="V38" s="41" t="s">
+      <c r="S38" s="46"/>
+      <c r="T38" s="46"/>
+      <c r="U38" s="46"/>
+      <c r="V38" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="W38" s="41"/>
-      <c r="X38" s="41"/>
-      <c r="Y38" s="41"/>
+      <c r="W38" s="46"/>
+      <c r="X38" s="46"/>
+      <c r="Y38" s="46"/>
     </row>
     <row r="39" spans="1:25">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42" t="s">
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42" t="s">
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42" t="s">
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="N39" s="42"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-      <c r="R39" s="42" t="s">
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="R39" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="S39" s="42"/>
-      <c r="T39" s="42"/>
-      <c r="U39" s="42"/>
-      <c r="V39" s="42" t="s">
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="W39" s="42"/>
-      <c r="X39" s="42"/>
-      <c r="Y39" s="42"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="43"/>
+      <c r="Y39" s="43"/>
     </row>
     <row r="40" spans="1:25" ht="47.25" customHeight="1">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41" t="s">
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41" t="s">
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41" t="s">
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="41"/>
-      <c r="R40" s="41" t="s">
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="46"/>
+      <c r="R40" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="S40" s="41"/>
-      <c r="T40" s="41"/>
-      <c r="U40" s="41"/>
-      <c r="V40" s="41" t="s">
+      <c r="S40" s="46"/>
+      <c r="T40" s="46"/>
+      <c r="U40" s="46"/>
+      <c r="V40" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="W40" s="41"/>
-      <c r="X40" s="41"/>
-      <c r="Y40" s="41"/>
+      <c r="W40" s="46"/>
+      <c r="X40" s="46"/>
+      <c r="Y40" s="46"/>
     </row>
     <row r="41" spans="1:25">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42" t="s">
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42" t="s">
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42" t="s">
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="N41" s="42"/>
-      <c r="O41" s="42"/>
-      <c r="P41" s="42"/>
-      <c r="R41" s="42" t="s">
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="R41" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="S41" s="42"/>
-      <c r="T41" s="42"/>
-      <c r="U41" s="42"/>
-      <c r="V41" s="42" t="s">
+      <c r="S41" s="43"/>
+      <c r="T41" s="43"/>
+      <c r="U41" s="43"/>
+      <c r="V41" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="W41" s="42"/>
-      <c r="X41" s="42"/>
-      <c r="Y41" s="42"/>
+      <c r="W41" s="43"/>
+      <c r="X41" s="43"/>
+      <c r="Y41" s="43"/>
     </row>
     <row r="42" spans="1:25" ht="49.5" customHeight="1">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41" t="s">
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41" t="s">
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41" t="s">
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="41"/>
-      <c r="R42" s="41" t="s">
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="R42" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="S42" s="41"/>
-      <c r="T42" s="41"/>
-      <c r="U42" s="41"/>
-      <c r="V42" s="41" t="s">
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="46"/>
+      <c r="V42" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="W42" s="41"/>
-      <c r="X42" s="41"/>
-      <c r="Y42" s="41"/>
+      <c r="W42" s="46"/>
+      <c r="X42" s="46"/>
+      <c r="Y42" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="129">
+  <mergeCells count="145">
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="V26:Y26"/>
+    <mergeCell ref="R27:U27"/>
+    <mergeCell ref="V27:Y27"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="V21:Y21"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="V23:Y23"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:Y24"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="V14:Y14"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
     <mergeCell ref="V35:Y35"/>
     <mergeCell ref="V36:Y36"/>
     <mergeCell ref="V37:Y37"/>
@@ -3279,126 +3620,21 @@
     <mergeCell ref="R40:U40"/>
     <mergeCell ref="R41:U41"/>
     <mergeCell ref="R42:U42"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="V14:Y14"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="R14:U14"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 W4 S4 F4 J4 N4 B18 F18 J18 N18 B32 F32 J32 N32 S32 W32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 W4 S4 F4 J4 N4 B18 F18 J18 N18 B32 F32 J32 N32 S32 W32 W18 S18">
       <formula1>severity</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 X4 T4 G4 K4 O4 C18 G18 K18 O18 C32 G32 K32 O32 T32 X32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 X4 T4 G4 K4 O4 C18 G18 K18 O18 C32 G32 K32 O32 T32 X32 X18 T18">
       <formula1>category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 Y4 U4 H4 L4 P4 D18 H18 L18 P18 D32 H32 L32 P32 U32 Y32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 Y4 U4 H4 L4 P4 D18 H18 L18 P18 D32 H32 L32 P32 U32 Y32 Y18 U18">
       <formula1>component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 V6 R6 E6 I6 M6 A20 E20 I20 M20 A34 E34 I34 M34 R34 V34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 V6 R6 E6 I6 M6 A20 E20 I20 M20 A34 E34 I34 M34 R34 V34 V20 R20">
       <formula1>status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 X6 T6 G6 K6 O6 C20 G20 K20 O20 C34 G34 K34 O34 T34 X34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 X6 T6 G6 K6 O6 C20 G20 K20 O20 C34 G34 K34 O34 T34 X34 X20 T20">
       <formula1>build_found</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B16 B30">

--- a/SGP_QA_GAME_2/HomelessTitans_Testing_for_TwoGuysAndAGirl_BugTracker_Ver2.xlsx
+++ b/SGP_QA_GAME_2/HomelessTitans_Testing_for_TwoGuysAndAGirl_BugTracker_Ver2.xlsx
@@ -943,6 +943,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -950,9 +953,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1684,8 +1684,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V28" sqref="V28:Y28"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="L6" s="30"/>
       <c r="M6" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N6" s="34">
         <v>40381</v>
@@ -1988,118 +1988,118 @@
       <c r="Y6" s="38"/>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43" t="s">
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43" t="s">
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="R7" s="43" t="s">
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="R7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43" t="s">
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="43"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44" t="s">
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44" t="s">
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="R8" s="44" t="s">
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="R8" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44" t="s">
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
     </row>
     <row r="9" spans="1:25" ht="15" customHeight="1">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45" t="s">
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45" t="s">
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45" t="s">
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="R9" s="45" t="s">
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="R9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45" t="s">
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
     </row>
     <row r="10" spans="1:25" ht="50.1" customHeight="1">
       <c r="A10" s="48" t="s">
@@ -2108,188 +2108,188 @@
       <c r="B10" s="49"/>
       <c r="C10" s="49"/>
       <c r="D10" s="50"/>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46" t="s">
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46" t="s">
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="R10" s="46" t="s">
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="R10" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46" t="s">
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="W10" s="46"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43" t="s">
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43" t="s">
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="R11" s="43" t="s">
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="R11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43" t="s">
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44"/>
     </row>
     <row r="12" spans="1:25" ht="50.1" customHeight="1">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46" t="s">
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46" t="s">
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46" t="s">
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="R12" s="46" t="s">
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="R12" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46" t="s">
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="46"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43" t="s">
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43" t="s">
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="R13" s="43" t="s">
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="R13" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43" t="s">
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
     </row>
     <row r="14" spans="1:25" ht="50.1" customHeight="1">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46" t="s">
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46" t="s">
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46" t="s">
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="R14" s="46" t="s">
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="R14" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46" t="s">
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:25" ht="16.5" thickTop="1" thickBot="1">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F20" s="34">
         <v>40382</v>
@@ -2579,308 +2579,308 @@
       <c r="Y20" s="42"/>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43" t="s">
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43" t="s">
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43" t="s">
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="R21" s="43" t="s">
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="R21" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43" t="s">
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="W21" s="43"/>
-      <c r="X21" s="43"/>
-      <c r="Y21" s="43"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44" t="s">
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44" t="s">
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44" t="s">
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="R22" s="44" t="s">
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="R22" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44" t="s">
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="W22" s="44"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="44"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45" t="s">
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45" t="s">
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45" t="s">
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="R23" s="45" t="s">
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="R23" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45" t="s">
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="W23" s="45"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="45"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
     </row>
     <row r="24" spans="1:25" ht="49.5" customHeight="1">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46" t="s">
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46" t="s">
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46" t="s">
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="R24" s="46" t="s">
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="R24" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="46" t="s">
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="W24" s="46"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="46"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43" t="s">
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43" t="s">
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43" t="s">
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="R25" s="43" t="s">
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="R25" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="43" t="s">
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="W25" s="43"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="43"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
     </row>
     <row r="26" spans="1:25" ht="49.5" customHeight="1">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46" t="s">
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46" t="s">
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46" t="s">
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-      <c r="R26" s="46" t="s">
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="R26" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46" t="s">
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="W26" s="46"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="46"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="43"/>
     </row>
     <row r="27" spans="1:25">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43" t="s">
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43" t="s">
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43" t="s">
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="R27" s="43" t="s">
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="R27" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43" t="s">
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="W27" s="43"/>
-      <c r="X27" s="43"/>
-      <c r="Y27" s="43"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
     </row>
     <row r="28" spans="1:25" ht="49.5" customHeight="1">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46" t="s">
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46" t="s">
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46" t="s">
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="R28" s="46" t="s">
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="R28" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="46" t="s">
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="W28" s="46"/>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="46"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="43"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:25" ht="16.5" thickTop="1" thickBot="1">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="H34" s="32"/>
       <c r="I34" s="32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J34" s="34">
         <v>40382</v>
@@ -3170,432 +3170,311 @@
       <c r="Y34" s="40"/>
     </row>
     <row r="35" spans="1:25">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43" t="s">
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43" t="s">
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43" t="s">
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="R35" s="43" t="s">
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="R35" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="S35" s="43"/>
-      <c r="T35" s="43"/>
-      <c r="U35" s="43"/>
-      <c r="V35" s="43" t="s">
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="W35" s="43"/>
-      <c r="X35" s="43"/>
-      <c r="Y35" s="43"/>
+      <c r="W35" s="44"/>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="44"/>
     </row>
     <row r="36" spans="1:25">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44" t="s">
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44" t="s">
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44" t="s">
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="N36" s="44"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="44"/>
-      <c r="R36" s="44" t="s">
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="R36" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="S36" s="44"/>
-      <c r="T36" s="44"/>
-      <c r="U36" s="44"/>
-      <c r="V36" s="44" t="s">
+      <c r="S36" s="45"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="W36" s="44"/>
-      <c r="X36" s="44"/>
-      <c r="Y36" s="44"/>
+      <c r="W36" s="45"/>
+      <c r="X36" s="45"/>
+      <c r="Y36" s="45"/>
     </row>
     <row r="37" spans="1:25">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45" t="s">
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45" t="s">
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45" t="s">
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="R37" s="45" t="s">
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+      <c r="R37" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="45" t="s">
+      <c r="S37" s="46"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="46"/>
+      <c r="V37" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="W37" s="45"/>
-      <c r="X37" s="45"/>
-      <c r="Y37" s="45"/>
+      <c r="W37" s="46"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="46"/>
     </row>
     <row r="38" spans="1:25" ht="49.5" customHeight="1">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46" t="s">
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46" t="s">
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46" t="s">
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="46"/>
-      <c r="R38" s="46" t="s">
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="R38" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="S38" s="46"/>
-      <c r="T38" s="46"/>
-      <c r="U38" s="46"/>
-      <c r="V38" s="46" t="s">
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="W38" s="46"/>
-      <c r="X38" s="46"/>
-      <c r="Y38" s="46"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="43"/>
     </row>
     <row r="39" spans="1:25">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43" t="s">
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43" t="s">
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43" t="s">
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="R39" s="43" t="s">
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="R39" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="S39" s="43"/>
-      <c r="T39" s="43"/>
-      <c r="U39" s="43"/>
-      <c r="V39" s="43" t="s">
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="44"/>
+      <c r="V39" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="W39" s="43"/>
-      <c r="X39" s="43"/>
-      <c r="Y39" s="43"/>
+      <c r="W39" s="44"/>
+      <c r="X39" s="44"/>
+      <c r="Y39" s="44"/>
     </row>
     <row r="40" spans="1:25" ht="47.25" customHeight="1">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46" t="s">
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46" t="s">
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46" t="s">
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="N40" s="46"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="46"/>
-      <c r="R40" s="46" t="s">
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="R40" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="S40" s="46"/>
-      <c r="T40" s="46"/>
-      <c r="U40" s="46"/>
-      <c r="V40" s="46" t="s">
+      <c r="S40" s="43"/>
+      <c r="T40" s="43"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="W40" s="46"/>
-      <c r="X40" s="46"/>
-      <c r="Y40" s="46"/>
+      <c r="W40" s="43"/>
+      <c r="X40" s="43"/>
+      <c r="Y40" s="43"/>
     </row>
     <row r="41" spans="1:25">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43" t="s">
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43" t="s">
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43" t="s">
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="43"/>
-      <c r="R41" s="43" t="s">
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+      <c r="R41" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="S41" s="43"/>
-      <c r="T41" s="43"/>
-      <c r="U41" s="43"/>
-      <c r="V41" s="43" t="s">
+      <c r="S41" s="44"/>
+      <c r="T41" s="44"/>
+      <c r="U41" s="44"/>
+      <c r="V41" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="W41" s="43"/>
-      <c r="X41" s="43"/>
-      <c r="Y41" s="43"/>
+      <c r="W41" s="44"/>
+      <c r="X41" s="44"/>
+      <c r="Y41" s="44"/>
     </row>
     <row r="42" spans="1:25" ht="49.5" customHeight="1">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46" t="s">
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46" t="s">
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46" t="s">
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="46"/>
-      <c r="R42" s="46" t="s">
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
+      <c r="R42" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="S42" s="46"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="46"/>
-      <c r="V42" s="46" t="s">
+      <c r="S42" s="43"/>
+      <c r="T42" s="43"/>
+      <c r="U42" s="43"/>
+      <c r="V42" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="W42" s="46"/>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="46"/>
+      <c r="W42" s="43"/>
+      <c r="X42" s="43"/>
+      <c r="Y42" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="145">
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="V26:Y26"/>
-    <mergeCell ref="R27:U27"/>
-    <mergeCell ref="V27:Y27"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="V21:Y21"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="V23:Y23"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="V24:Y24"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="V14:Y14"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
     <mergeCell ref="V35:Y35"/>
     <mergeCell ref="V36:Y36"/>
     <mergeCell ref="V37:Y37"/>
@@ -3620,6 +3499,127 @@
     <mergeCell ref="R40:U40"/>
     <mergeCell ref="R41:U41"/>
     <mergeCell ref="R42:U42"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="V14:Y14"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="V26:Y26"/>
+    <mergeCell ref="R27:U27"/>
+    <mergeCell ref="V27:Y27"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="V21:Y21"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="V23:Y23"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:Y24"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="V25:Y25"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 W4 S4 F4 J4 N4 B18 F18 J18 N18 B32 F32 J32 N32 S32 W32 W18 S18">
